--- a/Atividade Divisão.xlsx
+++ b/Atividade Divisão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71338739409\Desktop\Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14472618-1739-412C-AED7-B0B862182E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7715BE05-1F8B-43C5-AEA8-9828FEB4EBEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{69691D44-0EBA-4E60-9E1E-74FA80E1F7FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Planilha de Vendas Papelaria</t>
   </si>
@@ -67,13 +67,34 @@
   </si>
   <si>
     <t>Vendas Realizadas</t>
+  </si>
+  <si>
+    <t>água</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +154,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -178,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -341,41 +369,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="7"/>
-      </left>
-      <right style="medium">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7"/>
-      </left>
-      <right style="medium">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -402,24 +401,57 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="7"/>
+        </left>
+        <right style="medium">
+          <color theme="7"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -567,21 +599,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="7"/>
-        </left>
-        <right style="medium">
-          <color theme="7"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
@@ -615,23 +632,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C39A4AE-AB8F-4E87-A4AC-F55E3BD3F65B}" name="tbl_escritorio_div" displayName="tbl_escritorio_div" ref="A2:D7" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C39A4AE-AB8F-4E87-A4AC-F55E3BD3F65B}" name="tbl_escritorio_div" displayName="tbl_escritorio_div" ref="A2:D7" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A2:D7" xr:uid="{CD209A14-2718-4036-9665-315850896A91}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3A1E6424-91E1-4A8D-A168-AD135ABAD074}" name="Produto"/>
-    <tableColumn id="2" xr3:uid="{1C0440A4-53D4-4D50-9CF9-AC23EE7CC5B5}" name="Preço Unitário" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0778E032-F98D-4CA9-9ED7-535BC879E158}" name="Vendas Semestre" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{CF9921AF-1844-43F8-BAB5-965D2C2879E2}" name="Qtd. Vendas" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1C0440A4-53D4-4D50-9CF9-AC23EE7CC5B5}" name="Preço Unitário" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0778E032-F98D-4CA9-9ED7-535BC879E158}" name="Vendas Semestre" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{CF9921AF-1844-43F8-BAB5-965D2C2879E2}" name="Qtd. Vendas" dataDxfId="1">
+      <calculatedColumnFormula>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34F2DAA6-2B24-41C2-A1B6-27D30C5A6F42}" name="vendas_semestre" displayName="vendas_semestre" ref="F1:F2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34F2DAA6-2B24-41C2-A1B6-27D30C5A6F42}" name="vendas_semestre" displayName="vendas_semestre" ref="F1:F2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="F1:F2" xr:uid="{CE38F1CA-4D82-4FAB-B7F5-AB0850A7C524}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DB3309A4-47F6-4DB7-B831-DF1CE37ACE66}" name="Total Vendas Semestre" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{DB3309A4-47F6-4DB7-B831-DF1CE37ACE66}" name="Total Vendas Semestre" dataDxfId="5">
       <calculatedColumnFormula>SUM(tbl_escritorio_div[Vendas Semestre])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -640,12 +659,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD38F8EB-49F3-475F-81C4-5AC5573355D8}" name="meta_semestre" displayName="meta_semestre" ref="F4:F5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD38F8EB-49F3-475F-81C4-5AC5573355D8}" name="meta_semestre" displayName="meta_semestre" ref="F4:F5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="F4:F5" xr:uid="{FB48C2BD-CAA1-4B58-95BF-F6F192BD788F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1F230E3F-9CBD-4859-B9A7-6A6E3EAE879D}" name="Meta Vendas Semestre" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1F230E3F-9CBD-4859-B9A7-6A6E3EAE879D}" name="Meta Vendas Semestre" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9B177FE3-038D-4B6D-ACED-57116BDEF02F}" name="Tabela4" displayName="Tabela4" ref="J6:L10" totalsRowShown="0">
+  <autoFilter ref="J6:L10" xr:uid="{4943A4BE-3B05-4789-B880-060109CE1ED5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D356729A-F079-459E-99DD-C4B87E464C32}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{35C254B4-138C-4045-9C28-B3D3ADCCBECD}" name="Coluna2"/>
+    <tableColumn id="3" xr3:uid="{5DE275A3-4BB7-4A38-B0EE-A51219D442F0}" name="Coluna3" dataDxfId="0" dataCellStyle="Porcentagem"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -946,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C634CDD-281F-4C62-807F-53E4F6B3A017}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,9 +991,10 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -988,13 +1020,13 @@
       </c>
       <c r="F2" s="5">
         <f>SUM(tbl_escritorio_div[Vendas Semestre])</f>
-        <v>21600</v>
+        <v>23600</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1002,12 +1034,18 @@
         <v>17</v>
       </c>
       <c r="C3" s="7">
-        <v>3400</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5400</v>
+      </c>
+      <c r="D3" s="8">
+        <f>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</f>
+        <v>317.64705882352939</v>
+      </c>
+      <c r="H3" s="23">
+        <f>vendas_semestre[Total Vendas Semestre]/meta_semestre[Meta Vendas Semestre]</f>
+        <v>0.78666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1017,13 +1055,16 @@
       <c r="C4" s="7">
         <v>2200</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <f>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</f>
+        <v>200</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1033,13 +1074,16 @@
       <c r="C5" s="7">
         <v>3000</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <f>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</f>
+        <v>1000</v>
+      </c>
       <c r="F5" s="5">
         <v>30000</v>
       </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1049,9 +1093,21 @@
       <c r="C6" s="7">
         <v>2000</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="9">
+        <f>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</f>
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1061,9 +1117,46 @@
       <c r="C7" s="7">
         <v>11000</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="10">
+        <f>tbl_escritorio_div[[#This Row],[Vendas Semestre]]/tbl_escritorio_div[[#This Row],[Preço Unitário]]</f>
+        <v>733.33333333333337</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>250</v>
+      </c>
+      <c r="L7" s="26">
+        <f>K7/K10</f>
+        <v>0.12315270935960591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8" s="26">
+        <f>K8/K10</f>
+        <v>0.14778325123152711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>1480</v>
+      </c>
+      <c r="L9" s="26">
+        <f>K9/K10</f>
+        <v>0.72906403940886699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1166,19 @@
       <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K7:K9)</f>
+        <v>2030</v>
+      </c>
+      <c r="L10" s="27">
+        <f>SUM(L7:L9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
@@ -1089,13 +1193,13 @@
       </c>
       <c r="F11" s="14">
         <f>SUM(tbl_escritorio_div[Vendas Semestre])</f>
-        <v>21600</v>
+        <v>23600</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
@@ -1105,10 +1209,16 @@
       <c r="C12" s="17">
         <v>3400</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="18">
+        <f>C12/B12</f>
+        <v>200</v>
+      </c>
+      <c r="H12" s="23">
+        <f>F11/F14</f>
+        <v>0.78666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -1118,13 +1228,16 @@
       <c r="C13" s="21">
         <v>2200</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:D16" si="0">C13/B13</f>
+        <v>200</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -1134,13 +1247,16 @@
       <c r="C14" s="17">
         <v>3000</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="F14" s="14">
         <v>30000</v>
       </c>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
@@ -1150,9 +1266,12 @@
       <c r="C15" s="21">
         <v>2000</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
@@ -1162,10 +1281,13 @@
       <c r="C16" s="17">
         <v>11000</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="25"/>
+      <c r="F20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1174,10 +1296,11 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>